--- a/new/input/a.xlsx
+++ b/new/input/a.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\git\xlConverter\new\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E57A3A-2C6E-477B-B617-BD4A55F68484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D21198-DB5A-4300-8BE8-7BC08C3E0A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="7540" windowWidth="19160" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#test" sheetId="1" r:id="rId1"/>
-    <sheet name="#test2" sheetId="2" r:id="rId2"/>
+    <sheet name="test2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,7 +96,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默認值</t>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'a':1,'b':2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fweofjw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,15 +483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -448,70 +508,132 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>3.5</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -525,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3C2F11-37A4-4DA1-94F9-D24E36877F68}">
   <dimension ref="I4:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>

--- a/new/input/a.xlsx
+++ b/new/input/a.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\git\xlConverter\new\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D21198-DB5A-4300-8BE8-7BC08C3E0A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3490911-F647-4DC9-B294-64B84F960F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="7540" windowWidth="19160" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="7540" windowWidth="19160" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#test" sheetId="1" r:id="rId1"/>
-    <sheet name="test2" sheetId="2" r:id="rId2"/>
+    <sheet name="#test2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -645,47 +645,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3C2F11-37A4-4DA1-94F9-D24E36877F68}">
-  <dimension ref="I4:P7"/>
+  <dimension ref="I3:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="9:16" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J8">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="9:16" x14ac:dyDescent="0.3">
-      <c r="I7" t="s">
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <v>3.5</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
         <v>2</v>
       </c>
     </row>
